--- a/1_Result_Tables/4_ifoCAST_evaluations_full_since_2022/ifoCAst_error_tables_full_first_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full_since_2022/ifoCAst_error_tables_full_first_since_2022.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2136531995106281</v>
+        <v>0.2128381982599638</v>
       </c>
       <c r="C3">
-        <v>0.6115363003508676</v>
+        <v>0.5858536052976883</v>
       </c>
       <c r="D3">
-        <v>0.5641965996075016</v>
+        <v>0.5319869414474643</v>
       </c>
       <c r="E3">
-        <v>0.7511302148146496</v>
+        <v>0.7293743493210221</v>
       </c>
       <c r="F3">
-        <v>0.7241376265551751</v>
+        <v>0.701291567186506</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1106550478525736</v>
+        <v>0.1618673208653933</v>
       </c>
       <c r="C4">
-        <v>0.4866823630163626</v>
+        <v>0.5051966086236355</v>
       </c>
       <c r="D4">
-        <v>0.3251093817585659</v>
+        <v>0.340115955331918</v>
       </c>
       <c r="E4">
-        <v>0.5701836386275617</v>
+        <v>0.5831946118851905</v>
       </c>
       <c r="F4">
-        <v>0.5661233893345902</v>
+        <v>0.566472252636492</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
